--- a/ml03_df.xlsx
+++ b/ml03_df.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sudspg\su_dspg_ds\ml03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B39A23-EEE4-4F49-A461-F3BE44F6AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033F90F-0A48-46D1-AFEC-3B7ECE8232F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1800" windowWidth="31200" windowHeight="17985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1430" windowWidth="27320" windowHeight="18350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_sample" sheetId="1" r:id="rId1"/>
-    <sheet name="saitama_temp_202208" sheetId="9" r:id="rId2"/>
+    <sheet name="saitama_temp_202308" sheetId="9" r:id="rId2"/>
     <sheet name="c1" sheetId="2" r:id="rId3"/>
     <sheet name="c2" sheetId="3" r:id="rId4"/>
     <sheet name="m1" sheetId="4" r:id="rId5"/>
@@ -450,7 +450,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
@@ -521,10 +521,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -546,436 +546,436 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B2" s="3">
-        <v>31.3</v>
+        <v>26.9</v>
       </c>
       <c r="C2" s="3">
-        <v>37.4</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3">
-        <v>26.5</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4">
-        <v>44775</v>
+        <v>45140</v>
       </c>
       <c r="B3" s="3">
-        <v>32.1</v>
+        <v>28.9</v>
       </c>
       <c r="C3" s="3">
-        <v>38.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="D3" s="3">
-        <v>25.8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4">
-        <v>44776</v>
+        <v>45141</v>
       </c>
       <c r="B4" s="3">
-        <v>32.200000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="C4" s="3">
-        <v>38</v>
+        <v>35.9</v>
       </c>
       <c r="D4" s="3">
-        <v>26.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4">
-        <v>44777</v>
+        <v>45142</v>
       </c>
       <c r="B5" s="3">
-        <v>24.8</v>
+        <v>31.5</v>
       </c>
       <c r="C5" s="3">
-        <v>29.9</v>
+        <v>37.9</v>
       </c>
       <c r="D5" s="3">
-        <v>22.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4">
-        <v>44778</v>
+        <v>45143</v>
       </c>
       <c r="B6" s="3">
-        <v>24.1</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
-        <v>27.3</v>
+        <v>36.6</v>
       </c>
       <c r="D6" s="3">
-        <v>21.7</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4">
-        <v>44779</v>
+        <v>45144</v>
       </c>
       <c r="B7" s="3">
-        <v>25.5</v>
+        <v>29.7</v>
       </c>
       <c r="C7" s="3">
-        <v>29.8</v>
+        <v>34.1</v>
       </c>
       <c r="D7" s="3">
-        <v>22.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
-        <v>44780</v>
+        <v>45145</v>
       </c>
       <c r="B8" s="3">
-        <v>27.4</v>
+        <v>30.1</v>
       </c>
       <c r="C8" s="3">
-        <v>32.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3">
-        <v>23</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4">
-        <v>44781</v>
+        <v>45146</v>
       </c>
       <c r="B9" s="3">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="C9" s="3">
-        <v>35.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D9" s="3">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4">
-        <v>44782</v>
+        <v>45147</v>
       </c>
       <c r="B10" s="3">
-        <v>31.6</v>
+        <v>28.3</v>
       </c>
       <c r="C10" s="3">
-        <v>36.799999999999997</v>
+        <v>32.9</v>
       </c>
       <c r="D10" s="3">
-        <v>26.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4">
-        <v>44783</v>
+        <v>45148</v>
       </c>
       <c r="B11" s="3">
-        <v>31</v>
+        <v>29.8</v>
       </c>
       <c r="C11" s="3">
-        <v>35.9</v>
+        <v>34.6</v>
       </c>
       <c r="D11" s="3">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4">
-        <v>44784</v>
+        <v>45149</v>
       </c>
       <c r="B12" s="3">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="C12" s="3">
-        <v>34.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3">
-        <v>26.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4">
-        <v>44785</v>
+        <v>45150</v>
       </c>
       <c r="B13" s="3">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>32.799999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="D13" s="3">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4">
-        <v>44786</v>
+        <v>45151</v>
       </c>
       <c r="B14" s="3">
-        <v>25.7</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>29.2</v>
+        <v>32.1</v>
       </c>
       <c r="D14" s="3">
-        <v>24.3</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4">
-        <v>44787</v>
+        <v>45152</v>
       </c>
       <c r="B15" s="3">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="C15" s="3">
-        <v>32.799999999999997</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D15" s="3">
-        <v>23.7</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4">
-        <v>44788</v>
+        <v>45153</v>
       </c>
       <c r="B16" s="3">
-        <v>29.6</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
-        <v>34.299999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="D16" s="3">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4">
-        <v>44789</v>
+        <v>45154</v>
       </c>
       <c r="B17" s="3">
-        <v>30.2</v>
+        <v>28.7</v>
       </c>
       <c r="C17" s="3">
-        <v>36.299999999999997</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4">
-        <v>44790</v>
+        <v>45155</v>
       </c>
       <c r="B18" s="3">
-        <v>27.3</v>
+        <v>30.1</v>
       </c>
       <c r="C18" s="3">
-        <v>31</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D18" s="3">
-        <v>23.3</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4">
-        <v>44791</v>
+        <v>45156</v>
       </c>
       <c r="B19" s="3">
-        <v>25.2</v>
+        <v>30.2</v>
       </c>
       <c r="C19" s="3">
-        <v>29.4</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D19" s="3">
-        <v>23</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4">
-        <v>44792</v>
+        <v>45157</v>
       </c>
       <c r="B20" s="3">
-        <v>27.4</v>
+        <v>30.2</v>
       </c>
       <c r="C20" s="3">
-        <v>32.9</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
-        <v>21.8</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
-        <v>44793</v>
+        <v>45158</v>
       </c>
       <c r="B21" s="3">
-        <v>25.6</v>
+        <v>30.7</v>
       </c>
       <c r="C21" s="3">
-        <v>29.5</v>
+        <v>35.6</v>
       </c>
       <c r="D21" s="3">
-        <v>22.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4">
-        <v>44794</v>
+        <v>45159</v>
       </c>
       <c r="B22" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D22" s="3">
         <v>26</v>
-      </c>
-      <c r="C22" s="3">
-        <v>29</v>
-      </c>
-      <c r="D22" s="3">
-        <v>23.4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
-        <v>44795</v>
+        <v>45160</v>
       </c>
       <c r="B23" s="3">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="C23" s="3">
-        <v>30.3</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D23" s="3">
-        <v>22.7</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4">
-        <v>44796</v>
+        <v>45161</v>
       </c>
       <c r="B24" s="3">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C24" s="3">
-        <v>34.9</v>
+        <v>33.9</v>
       </c>
       <c r="D24" s="3">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4">
-        <v>44797</v>
+        <v>45162</v>
       </c>
       <c r="B25" s="3">
-        <v>27.9</v>
+        <v>29.8</v>
       </c>
       <c r="C25" s="3">
-        <v>32.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3">
-        <v>24.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <v>44798</v>
+        <v>45163</v>
       </c>
       <c r="B26" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D26" s="3">
         <v>25.9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>23.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <v>44799</v>
+        <v>45164</v>
       </c>
       <c r="B27" s="3">
-        <v>26.7</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3">
-        <v>30.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D27" s="3">
-        <v>23.9</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
-        <v>44800</v>
+        <v>45165</v>
       </c>
       <c r="B28" s="3">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="C28" s="3">
-        <v>34.700000000000003</v>
+        <v>31.9</v>
       </c>
       <c r="D28" s="3">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
-        <v>44801</v>
+        <v>45166</v>
       </c>
       <c r="B29" s="3">
-        <v>23.3</v>
+        <v>29.8</v>
       </c>
       <c r="C29" s="3">
-        <v>26.1</v>
+        <v>35.5</v>
       </c>
       <c r="D29" s="3">
-        <v>21.6</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4">
-        <v>44802</v>
+        <v>45167</v>
       </c>
       <c r="B30" s="3">
-        <v>23.1</v>
+        <v>29.8</v>
       </c>
       <c r="C30" s="3">
-        <v>27.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D30" s="3">
-        <v>19.7</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
-        <v>44803</v>
+        <v>45168</v>
       </c>
       <c r="B31" s="3">
-        <v>22.5</v>
+        <v>29.8</v>
       </c>
       <c r="C31" s="3">
-        <v>26.6</v>
+        <v>35.1</v>
       </c>
       <c r="D31" s="3">
-        <v>18.899999999999999</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4">
-        <v>44804</v>
+        <v>45169</v>
       </c>
       <c r="B32" s="3">
-        <v>26.6</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3">
-        <v>33.5</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
-        <v>22.4</v>
+        <v>26.9</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +992,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1041,7 +1041,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1089,7 +1089,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1149,7 +1149,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1209,7 +1209,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1269,7 +1269,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1329,7 +1329,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
